--- a/data/partner_mgmt/Partner_List.xlsx
+++ b/data/partner_mgmt/Partner_List.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28122"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://adexpartners.sharepoint.com/sites/HUB_Partnermanagement/Shared Documents/Partner Overview/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://adexpartners-my.sharepoint.com/personal/dirk_schlossmacher_adexpartners_com/Documents/Dokumente/GitHub/AdEx-Partners/api-router/data/partner_mgmt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{84AA932D-0753-47B8-ADBA-F5D61CB57670}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{84AA932D-0753-47B8-ADBA-F5D61CB57670}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{84B3FC80-6927-47DA-B867-78F036675DA6}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="18696" xr2:uid="{EBFE87E2-6113-4797-8699-8B332CB096C3}"/>
+    <workbookView xWindow="-110" yWindow="-21710" windowWidth="38620" windowHeight="21100" xr2:uid="{EBFE87E2-6113-4797-8699-8B332CB096C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Agencies" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="378">
   <si>
     <t>Partner</t>
   </si>
@@ -1273,6 +1273,15 @@
   </si>
   <si>
     <t>Currently Working together ?</t>
+  </si>
+  <si>
+    <t>Markus Müller</t>
+  </si>
+  <si>
+    <t>Jokes</t>
+  </si>
+  <si>
+    <t>gut aussehend</t>
   </si>
 </sst>
 </file>
@@ -1665,6 +1674,69 @@
   </cellStyles>
   <dxfs count="31">
     <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5B5B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE7FD97"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6EC85C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5B5B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE7FD97"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6EC85C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1738,9 +1810,6 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -1754,66 +1823,6 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5B5B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE7FD97"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6EC85C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5B5B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE7FD97"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6EC85C"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1875,7 +1884,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2025,7 +2034,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="794698031"/>
@@ -2087,7 +2096,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="793863071"/>
@@ -2128,7 +2137,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2737,7 +2746,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{893F41BC-A35C-4F44-A5BC-2D4D3D332214}" name="Tabelle2" displayName="Tabelle2" ref="A1:V197" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23" headerRowBorderDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{893F41BC-A35C-4F44-A5BC-2D4D3D332214}" name="Tabelle2" displayName="Tabelle2" ref="A1:V197" totalsRowShown="0" headerRowDxfId="30" dataDxfId="28" headerRowBorderDxfId="29">
   <autoFilter ref="A1:V197" xr:uid="{893F41BC-A35C-4F44-A5BC-2D4D3D332214}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -2766,37 +2775,37 @@
     <sortCondition ref="A1:A197"/>
   </sortState>
   <tableColumns count="22">
-    <tableColumn id="1" xr3:uid="{DA732CE6-255B-4E98-B3EF-EFE618AC13F3}" name="Partner" dataDxfId="21"/>
-    <tableColumn id="12" xr3:uid="{B6B7B568-6959-46E8-978A-21AF5A107702}" name="Category" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{A45CD166-346B-4AC0-BDFE-CF98DA775DF8}" name="Partner profile" dataDxfId="19"/>
-    <tableColumn id="26" xr3:uid="{61E6EE4E-4587-4B02-BBB9-74C1975B3499}" name="Status" dataDxfId="18"/>
-    <tableColumn id="18" xr3:uid="{67681F1F-5A0C-4D10-82CE-1D8E9312E1B4}" name="More information" dataDxfId="17"/>
-    <tableColumn id="16" xr3:uid="{0F11E3E7-1225-41C8-AE32-4F428B80B142}" name="Active exchange with the partner in the last year" dataDxfId="16"/>
-    <tableColumn id="17" xr3:uid="{3518EE04-E6FA-4300-93FC-7EE4892DF2A8}" name="Active business relationship (referral of an employee) in the last year" dataDxfId="15"/>
-    <tableColumn id="14" xr3:uid="{53009837-E75B-42BE-AA1B-0F1B0961FAE6}" name="Industry Focus" dataDxfId="14"/>
-    <tableColumn id="27" xr3:uid="{E09FEE81-1F3D-4FEA-8B54-5047085B229F}" name="Portfolio (first listed is primary, generic is also valid)" dataDxfId="13"/>
-    <tableColumn id="15" xr3:uid="{3F6AE1D8-C86A-4ED8-95EE-F76A38B1A308}" name="Functional Focus" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{2DACBDF5-8D71-450E-9A9B-613772DEAA0D}" name="Partner Contact" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{9413DA63-007F-4A0F-83FD-52E98BA51B0A}" name="Mail" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{2A8A3068-9139-40E7-B2A1-B2FEAB32B232}" name="Phone" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{57340692-3775-4468-9A9F-0A245B6E6ADC}" name="#Consultants" dataDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{104354D3-33A8-40CE-BEBC-668907DD533A}" name="RfP" dataDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{D0A38707-4DAC-43BC-B69D-61065074D44D}" name="Offer?" dataDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{79F778CE-E565-453C-871E-F1F328694326}" name="ANÜ" dataDxfId="5"/>
-    <tableColumn id="10" xr3:uid="{45116EAA-F533-4940-B848-6E551C4C1FF3}" name="AdEx Contact" dataDxfId="4"/>
-    <tableColumn id="11" xr3:uid="{993D83FB-0C65-4FAE-B79B-37BED3814D46}" name="Track Record" dataDxfId="3"/>
-    <tableColumn id="13" xr3:uid="{688F6189-E098-4E3B-BBC6-9195E6BC389D}" name="Evaluation" dataDxfId="2"/>
-    <tableColumn id="20" xr3:uid="{37B67BEF-17E3-41E0-87FD-7A9019376600}" name="Last Update" dataDxfId="1"/>
-    <tableColumn id="25" xr3:uid="{B739B967-8713-405F-A7A2-3783C986DDA4}" name="Repository" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{DA732CE6-255B-4E98-B3EF-EFE618AC13F3}" name="Partner" dataDxfId="27"/>
+    <tableColumn id="12" xr3:uid="{B6B7B568-6959-46E8-978A-21AF5A107702}" name="Category" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{A45CD166-346B-4AC0-BDFE-CF98DA775DF8}" name="Partner profile" dataDxfId="25"/>
+    <tableColumn id="26" xr3:uid="{61E6EE4E-4587-4B02-BBB9-74C1975B3499}" name="Status" dataDxfId="24"/>
+    <tableColumn id="18" xr3:uid="{67681F1F-5A0C-4D10-82CE-1D8E9312E1B4}" name="More information" dataDxfId="23"/>
+    <tableColumn id="16" xr3:uid="{0F11E3E7-1225-41C8-AE32-4F428B80B142}" name="Active exchange with the partner in the last year" dataDxfId="22"/>
+    <tableColumn id="17" xr3:uid="{3518EE04-E6FA-4300-93FC-7EE4892DF2A8}" name="Active business relationship (referral of an employee) in the last year" dataDxfId="21"/>
+    <tableColumn id="14" xr3:uid="{53009837-E75B-42BE-AA1B-0F1B0961FAE6}" name="Industry Focus" dataDxfId="20"/>
+    <tableColumn id="27" xr3:uid="{E09FEE81-1F3D-4FEA-8B54-5047085B229F}" name="Portfolio (first listed is primary, generic is also valid)" dataDxfId="19"/>
+    <tableColumn id="15" xr3:uid="{3F6AE1D8-C86A-4ED8-95EE-F76A38B1A308}" name="Functional Focus" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{2DACBDF5-8D71-450E-9A9B-613772DEAA0D}" name="Partner Contact" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{9413DA63-007F-4A0F-83FD-52E98BA51B0A}" name="Mail" dataDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{2A8A3068-9139-40E7-B2A1-B2FEAB32B232}" name="Phone" dataDxfId="15"/>
+    <tableColumn id="6" xr3:uid="{57340692-3775-4468-9A9F-0A245B6E6ADC}" name="#Consultants" dataDxfId="14"/>
+    <tableColumn id="7" xr3:uid="{104354D3-33A8-40CE-BEBC-668907DD533A}" name="RfP" dataDxfId="13"/>
+    <tableColumn id="8" xr3:uid="{D0A38707-4DAC-43BC-B69D-61065074D44D}" name="Offer?" dataDxfId="12"/>
+    <tableColumn id="9" xr3:uid="{79F778CE-E565-453C-871E-F1F328694326}" name="ANÜ" dataDxfId="11"/>
+    <tableColumn id="10" xr3:uid="{45116EAA-F533-4940-B848-6E551C4C1FF3}" name="AdEx Contact" dataDxfId="10"/>
+    <tableColumn id="11" xr3:uid="{993D83FB-0C65-4FAE-B79B-37BED3814D46}" name="Track Record" dataDxfId="9"/>
+    <tableColumn id="13" xr3:uid="{688F6189-E098-4E3B-BBC6-9195E6BC389D}" name="Evaluation" dataDxfId="8"/>
+    <tableColumn id="20" xr3:uid="{37B67BEF-17E3-41E0-87FD-7A9019376600}" name="Last Update" dataDxfId="7"/>
+    <tableColumn id="25" xr3:uid="{B739B967-8713-405F-A7A2-3783C986DDA4}" name="Repository" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2834,7 +2843,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2940,7 +2949,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3082,7 +3091,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3093,36 +3102,36 @@
   <dimension ref="A1:V197"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="P37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S41" sqref="S41"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="14.45" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="10.86328125" defaultRowHeight="14.75" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="2" width="23.42578125" customWidth="1"/>
-    <col min="3" max="3" width="65.140625" style="3" customWidth="1" outlineLevel="1"/>
+    <col min="1" max="2" width="23.40625" customWidth="1"/>
+    <col min="3" max="3" width="65.1328125" style="3" customWidth="1" outlineLevel="1"/>
     <col min="4" max="4" width="20" style="3" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="44.28515625" style="3" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="38.85546875" style="3" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="47.42578125" style="3" bestFit="1" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="64.28515625" style="3" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="44.26953125" style="3" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="38.86328125" style="3" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="47.40625" style="3" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="64.26953125" style="3" bestFit="1" customWidth="1" outlineLevel="1"/>
     <col min="9" max="9" width="35" style="3" customWidth="1" outlineLevel="1"/>
-    <col min="10" max="10" width="29.28515625" bestFit="1" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="32.28515625" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="12" width="27.42578125" customWidth="1" outlineLevel="1"/>
-    <col min="13" max="13" width="26.140625" customWidth="1" outlineLevel="1"/>
-    <col min="14" max="14" width="15.28515625" customWidth="1" outlineLevel="1"/>
-    <col min="15" max="15" width="17.42578125" customWidth="1" outlineLevel="1"/>
-    <col min="16" max="16" width="20.140625" customWidth="1" outlineLevel="1"/>
-    <col min="17" max="17" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="26.42578125" customWidth="1"/>
-    <col min="19" max="19" width="25.7109375" customWidth="1"/>
-    <col min="20" max="20" width="40.85546875" customWidth="1"/>
-    <col min="21" max="21" width="57.28515625" customWidth="1"/>
-    <col min="22" max="22" width="37.28515625" customWidth="1"/>
+    <col min="10" max="10" width="29.26953125" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="32.26953125" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="27.40625" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="13" width="26.1328125" customWidth="1" outlineLevel="1"/>
+    <col min="14" max="14" width="15.26953125" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="15" width="17.40625" customWidth="1" outlineLevel="1"/>
+    <col min="16" max="16" width="20.1328125" customWidth="1" outlineLevel="1"/>
+    <col min="17" max="17" width="30.1328125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="26.40625" customWidth="1"/>
+    <col min="19" max="19" width="25.7265625" customWidth="1"/>
+    <col min="20" max="20" width="40.86328125" customWidth="1"/>
+    <col min="21" max="21" width="57.26953125" customWidth="1"/>
+    <col min="22" max="22" width="37.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="1" customFormat="1" ht="52.35" customHeight="1">
+    <row r="1" spans="1:22" s="1" customFormat="1" ht="52.4" customHeight="1">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -3656,7 +3665,7 @@
       <c r="U10" s="2"/>
       <c r="V10" s="2"/>
     </row>
-    <row r="11" spans="1:22" ht="28.9">
+    <row r="11" spans="1:22" ht="29.5">
       <c r="A11" s="17" t="s">
         <v>100</v>
       </c>
@@ -3806,7 +3815,7 @@
       </c>
       <c r="V13" s="2"/>
     </row>
-    <row r="14" spans="1:22" ht="100.9">
+    <row r="14" spans="1:22" ht="103.25">
       <c r="A14" s="10" t="s">
         <v>119</v>
       </c>
@@ -3858,7 +3867,7 @@
       <c r="U14" s="2"/>
       <c r="V14" s="2"/>
     </row>
-    <row r="15" spans="1:22" ht="95.85" customHeight="1">
+    <row r="15" spans="1:22" ht="95.9" customHeight="1">
       <c r="A15" s="17" t="s">
         <v>128</v>
       </c>
@@ -3946,7 +3955,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="17" spans="1:22" ht="72">
+    <row r="17" spans="1:22" ht="73.75">
       <c r="A17" s="17" t="s">
         <v>140</v>
       </c>
@@ -4088,7 +4097,7 @@
       </c>
       <c r="V19" s="2"/>
     </row>
-    <row r="20" spans="1:22" ht="43.15">
+    <row r="20" spans="1:22" ht="44.25">
       <c r="A20" s="17" t="s">
         <v>159</v>
       </c>
@@ -4402,7 +4411,7 @@
       <c r="U25" s="2"/>
       <c r="V25" s="2"/>
     </row>
-    <row r="26" spans="1:22" ht="42.6" customHeight="1">
+    <row r="26" spans="1:22" ht="42.65" customHeight="1">
       <c r="A26" s="16" t="s">
         <v>209</v>
       </c>
@@ -4458,7 +4467,7 @@
       </c>
       <c r="V26" s="2"/>
     </row>
-    <row r="27" spans="1:22" ht="42.6" customHeight="1">
+    <row r="27" spans="1:22" ht="42.65" customHeight="1">
       <c r="A27" s="16" t="s">
         <v>217</v>
       </c>
@@ -4540,7 +4549,7 @@
       </c>
       <c r="V28" s="2"/>
     </row>
-    <row r="29" spans="1:22" ht="100.9">
+    <row r="29" spans="1:22" ht="118">
       <c r="A29" s="10" t="s">
         <v>223</v>
       </c>
@@ -4762,7 +4771,7 @@
       <c r="U32" s="2"/>
       <c r="V32" s="2"/>
     </row>
-    <row r="33" spans="1:22" ht="28.9">
+    <row r="33" spans="1:22" ht="29.5">
       <c r="A33" s="17" t="s">
         <v>253</v>
       </c>
@@ -4890,7 +4899,7 @@
       </c>
       <c r="V35" s="2"/>
     </row>
-    <row r="36" spans="1:22" ht="57.6">
+    <row r="36" spans="1:22" ht="59">
       <c r="A36" s="17" t="s">
         <v>264</v>
       </c>
@@ -4934,7 +4943,7 @@
       </c>
       <c r="V36" s="2"/>
     </row>
-    <row r="37" spans="1:22" ht="43.15">
+    <row r="37" spans="1:22" ht="44.25">
       <c r="A37" s="17" t="s">
         <v>268</v>
       </c>
@@ -4996,7 +5005,7 @@
       <c r="U37" s="2"/>
       <c r="V37" s="2"/>
     </row>
-    <row r="38" spans="1:22" ht="57.6">
+    <row r="38" spans="1:22" ht="59">
       <c r="A38" s="17" t="s">
         <v>277</v>
       </c>
@@ -5040,7 +5049,7 @@
       </c>
       <c r="V38" s="2"/>
     </row>
-    <row r="39" spans="1:22" ht="43.15">
+    <row r="39" spans="1:22" ht="44.25">
       <c r="A39" s="17" t="s">
         <v>283</v>
       </c>
@@ -5150,7 +5159,7 @@
       <c r="U40" s="2"/>
       <c r="V40" s="2"/>
     </row>
-    <row r="41" spans="1:22" ht="118.5">
+    <row r="41" spans="1:22" ht="130">
       <c r="A41" s="16" t="s">
         <v>300</v>
       </c>
@@ -5210,7 +5219,7 @@
       <c r="U41" s="2"/>
       <c r="V41" s="2"/>
     </row>
-    <row r="42" spans="1:22" ht="28.9">
+    <row r="42" spans="1:22" ht="29.5">
       <c r="A42" s="17" t="s">
         <v>309</v>
       </c>
@@ -5272,7 +5281,7 @@
       <c r="U42" s="2"/>
       <c r="V42" s="2"/>
     </row>
-    <row r="43" spans="1:22" ht="57.6">
+    <row r="43" spans="1:22" ht="59">
       <c r="A43" s="10" t="s">
         <v>317</v>
       </c>
@@ -5320,7 +5329,7 @@
       <c r="U43" s="2"/>
       <c r="V43" s="2"/>
     </row>
-    <row r="44" spans="1:22" ht="115.15">
+    <row r="44" spans="1:22" ht="118">
       <c r="A44" s="17" t="s">
         <v>325</v>
       </c>
@@ -5493,7 +5502,7 @@
       <c r="U47" s="2"/>
       <c r="V47" s="2"/>
     </row>
-    <row r="48" spans="1:22" ht="72">
+    <row r="48" spans="1:22" ht="73.75">
       <c r="A48" s="2" t="s">
         <v>352</v>
       </c>
@@ -5552,9 +5561,15 @@
       <c r="V48" s="2"/>
     </row>
     <row r="49" spans="1:22">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
+      <c r="A49" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>377</v>
+      </c>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
@@ -9130,24 +9145,24 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="T3:T6 T8:T15 T17:T18 T20:T44 T47:T197">
-    <cfRule type="expression" dxfId="30" priority="1">
+    <cfRule type="expression" dxfId="5" priority="1">
       <formula>$T3=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="2">
+    <cfRule type="expression" dxfId="4" priority="2">
       <formula>$T3=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="3">
+    <cfRule type="expression" dxfId="3" priority="3">
       <formula>$T3=3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U7">
-    <cfRule type="expression" dxfId="27" priority="7">
+    <cfRule type="expression" dxfId="2" priority="7">
       <formula>$U7=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="8">
+    <cfRule type="expression" dxfId="1" priority="8">
       <formula>$U7=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="9">
+    <cfRule type="expression" dxfId="0" priority="9">
       <formula>$U7=3</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9246,14 +9261,14 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="11.40625" defaultRowHeight="14.75"/>
   <cols>
-    <col min="1" max="1" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.40625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.40625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" customWidth="1"/>
-    <col min="6" max="6" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.7265625" customWidth="1"/>
+    <col min="6" max="6" width="33.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -9393,9 +9408,9 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="10.86328125" defaultRowHeight="14.75"/>
   <cols>
-    <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.40625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -15020,6 +15035,213 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f05de70f-1ed4-4de1-bc6a-294ed4ae95a9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="107cecd8-fd95-42b8-8897-866c2ff05617" xsi:nil="true"/>
+    <SharedWithUsers xmlns="107cecd8-fd95-42b8-8897-866c2ff05617">
+      <UserInfo>
+        <DisplayName>Jörn Schmitt</DisplayName>
+        <AccountId>112</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Marco Weber</DisplayName>
+        <AccountId>159</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Vivien Metelmann</DisplayName>
+        <AccountId>139</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Marc Kirsch</DisplayName>
+        <AccountId>192</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Dirk Schlossmacher</DisplayName>
+        <AccountId>125</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Jochen Berg</DisplayName>
+        <AccountId>69</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Alexander Wolf</DisplayName>
+        <AccountId>66</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Sören Hallmann</DisplayName>
+        <AccountId>118</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Björn Rösner</DisplayName>
+        <AccountId>68</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Christian Holthaus</DisplayName>
+        <AccountId>123</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Finn Schnoor</DisplayName>
+        <AccountId>88</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Sylvia Thiele</DisplayName>
+        <AccountId>250</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Andreas Zschimmer</DisplayName>
+        <AccountId>43</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Sebastian Bosse</DisplayName>
+        <AccountId>63</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Alexandre Rezende</DisplayName>
+        <AccountId>220</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Ralf Granderath</DisplayName>
+        <AccountId>91</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Dirk Becker</DisplayName>
+        <AccountId>135</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Sven Pfeuffer</DisplayName>
+        <AccountId>184</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Anton Schäfer</DisplayName>
+        <AccountId>172</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Jan Heinrichs</DisplayName>
+        <AccountId>134</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Joscha Markowz</DisplayName>
+        <AccountId>76</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Christoph Böhm</DisplayName>
+        <AccountId>49</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Tobias Wittebrock</DisplayName>
+        <AccountId>133</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Anton Paulenko</DisplayName>
+        <AccountId>147</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Jens Plotzki</DisplayName>
+        <AccountId>150</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Jörg Stefan</DisplayName>
+        <AccountId>141</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Marcin Pozorski</DisplayName>
+        <AccountId>41</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Alexandra Berling</DisplayName>
+        <AccountId>145</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Alexander Herold</DisplayName>
+        <AccountId>42</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Alexander Kleber</DisplayName>
+        <AccountId>216</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Michael Rademacher</DisplayName>
+        <AccountId>95</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Mikail Kibar</DisplayName>
+        <AccountId>116</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Patrick Lamers</DisplayName>
+        <AccountId>160</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Thorsten Schwab</DisplayName>
+        <AccountId>203</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Marcus Fromm</DisplayName>
+        <AccountId>305</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Cornelius Kündig</DisplayName>
+        <AccountId>34</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Enrico Nalesso</DisplayName>
+        <AccountId>346</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101007C21991E57AD884E8D68741E58194BB2" ma:contentTypeVersion="12" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="cc50e674aaadf5ea1cc3e298022672aa">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f05de70f-1ed4-4de1-bc6a-294ed4ae95a9" xmlns:ns3="107cecd8-fd95-42b8-8897-866c2ff05617" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b355178a2ce911c314ea235a250b9e66" ns2:_="" ns3:_="">
     <xsd:import namespace="f05de70f-1ed4-4de1-bc6a-294ed4ae95a9"/>
@@ -15236,223 +15458,42 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f05de70f-1ed4-4de1-bc6a-294ed4ae95a9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="107cecd8-fd95-42b8-8897-866c2ff05617" xsi:nil="true"/>
-    <SharedWithUsers xmlns="107cecd8-fd95-42b8-8897-866c2ff05617">
-      <UserInfo>
-        <DisplayName>Jörn Schmitt</DisplayName>
-        <AccountId>112</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Marco Weber</DisplayName>
-        <AccountId>159</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Vivien Metelmann</DisplayName>
-        <AccountId>139</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Marc Kirsch</DisplayName>
-        <AccountId>192</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Dirk Schlossmacher</DisplayName>
-        <AccountId>125</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Jochen Berg</DisplayName>
-        <AccountId>69</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Alexander Wolf</DisplayName>
-        <AccountId>66</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Sören Hallmann</DisplayName>
-        <AccountId>118</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Björn Rösner</DisplayName>
-        <AccountId>68</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Christian Holthaus</DisplayName>
-        <AccountId>123</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Finn Schnoor</DisplayName>
-        <AccountId>88</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Sylvia Thiele</DisplayName>
-        <AccountId>250</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Andreas Zschimmer</DisplayName>
-        <AccountId>43</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Sebastian Bosse</DisplayName>
-        <AccountId>63</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Alexandre Rezende</DisplayName>
-        <AccountId>220</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Ralf Granderath</DisplayName>
-        <AccountId>91</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Dirk Becker</DisplayName>
-        <AccountId>135</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Sven Pfeuffer</DisplayName>
-        <AccountId>184</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Anton Schäfer</DisplayName>
-        <AccountId>172</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Jan Heinrichs</DisplayName>
-        <AccountId>134</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Joscha Markowz</DisplayName>
-        <AccountId>76</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Christoph Böhm</DisplayName>
-        <AccountId>49</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Tobias Wittebrock</DisplayName>
-        <AccountId>133</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Anton Paulenko</DisplayName>
-        <AccountId>147</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Jens Plotzki</DisplayName>
-        <AccountId>150</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Jörg Stefan</DisplayName>
-        <AccountId>141</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Marcin Pozorski</DisplayName>
-        <AccountId>41</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Alexandra Berling</DisplayName>
-        <AccountId>145</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Alexander Herold</DisplayName>
-        <AccountId>42</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Alexander Kleber</DisplayName>
-        <AccountId>216</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Michael Rademacher</DisplayName>
-        <AccountId>95</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Mikail Kibar</DisplayName>
-        <AccountId>116</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Patrick Lamers</DisplayName>
-        <AccountId>160</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Thorsten Schwab</DisplayName>
-        <AccountId>203</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Marcus Fromm</DisplayName>
-        <AccountId>305</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Cornelius Kündig</DisplayName>
-        <AccountId>34</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Enrico Nalesso</DisplayName>
-        <AccountId>346</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37FDAC2B-228A-4EF5-B76C-29EFA053F011}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC1C8551-E4DC-48B1-9779-C141E8C7699D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7F048ED9-FF4E-4088-B34E-F4F88BF45A7A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7F048ED9-FF4E-4088-B34E-F4F88BF45A7A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="f05de70f-1ed4-4de1-bc6a-294ed4ae95a9"/>
+    <ds:schemaRef ds:uri="107cecd8-fd95-42b8-8897-866c2ff05617"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC1C8551-E4DC-48B1-9779-C141E8C7699D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37FDAC2B-228A-4EF5-B76C-29EFA053F011}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f05de70f-1ed4-4de1-bc6a-294ed4ae95a9"/>
+    <ds:schemaRef ds:uri="107cecd8-fd95-42b8-8897-866c2ff05617"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
